--- a/biology/Médecine/Anthropologie_psychanalytique/Anthropologie_psychanalytique.xlsx
+++ b/biology/Médecine/Anthropologie_psychanalytique/Anthropologie_psychanalytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthropologie psychanalytique est une discipline psychanalytique issue essentiellement de deux ouvrages de Freud Totem et Tabou (1913) et Malaise dans la civilisation (1930). Ces deux ouvrages ouvrent la voie à l'analyse du collectif, fondement inextricable de l'analyse du Moi.
 </t>
@@ -511,7 +523,9 @@
           <t>Lacanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si le terme d'« anthropologie psychanalytique » fut récusé par Lacan, c'est pourtant deux de ses héritiers contemporains Paul-Laurent Assoun et Markos Zafiropoulos qui poursuivent aujourd'hui cette problématique initiée par Freud.
 </t>
@@ -542,7 +556,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthropologie psychanalytique se distingue de l'ethno-psychanalyse ou de l'ethno-psychiatrie par son fondement théorique presque exclusivement centré sur le corpus freudo-lacanien. Ce domaine de recherche se traduit par l'actualisation constante (à travers notamment de multiples recherches, interdisciplinaires) du malaise dans la culture.
 </t>
